--- a/biology/Botanique/Paspaleae/Paspaleae.xlsx
+++ b/biology/Botanique/Paspaleae/Paspaleae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Paspaleae sont une tribu de plantes monocotylédones de la famille des Poaceae, sous-famille des Panicoideae, originaire des régions tropicales d'Amérique.
-Cette tribu comprend 673 espèces groupées en 40 genres répartis dans trois sous-tribus : Paspalinae (556 espèces en 15 genres[2]), Otachyriinae (40 espèces en 7 genres) et Arthropogoninae (75 espèces en 16 genres). Une espèce, Reynaudia filiformis (Spreng. ex Schult.) Kunth,  est classée incertae sedis au sein des Paspaleae[3].
-La tribu des Paspaleae était précédemment incluse dans celle des Paniceae mais en a été séparée  en 2012 à la suite d'analyses de phylogénétique moléculaire. Les Paspaleae ont un nombre chromosomique de base ancestral de x = 10, qui les différencient des Paniceae « sensu stricto » (x = 9), et sont plus étroitement apparentées avec les tribus des Andropogoneae et Arundinelleae[4].
-Le genre monotypique, Lecomtella, est parfois rattaché à la tribu, mais une étude de 2013 suggère que ce genre appartient à un clade différent et justifie la création d'une tribu distincte, les Lecomtelleae[5].
+Cette tribu comprend 673 espèces groupées en 40 genres répartis dans trois sous-tribus : Paspalinae (556 espèces en 15 genres), Otachyriinae (40 espèces en 7 genres) et Arthropogoninae (75 espèces en 16 genres). Une espèce, Reynaudia filiformis (Spreng. ex Schult.) Kunth,  est classée incertae sedis au sein des Paspaleae.
+La tribu des Paspaleae était précédemment incluse dans celle des Paniceae mais en a été séparée  en 2012 à la suite d'analyses de phylogénétique moléculaire. Les Paspaleae ont un nombre chromosomique de base ancestral de x = 10, qui les différencient des Paniceae « sensu stricto » (x = 9), et sont plus étroitement apparentées avec les tribus des Andropogoneae et Arundinelleae.
+Le genre monotypique, Lecomtella, est parfois rattaché à la tribu, mais une étude de 2013 suggère que ce genre appartient à un clade différent et justifie la création d'une tribu distincte, les Lecomtelleae.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Liste des genres classés par sous-tribus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 incertae sedis
